--- a/Pruebas Experimentales/Prueba Temperatura/Prueba Temperatura.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba Temperatura.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas pegadas" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,8 @@
     <externalReference r:id="rId51"/>
     <externalReference r:id="rId52"/>
     <externalReference r:id="rId53"/>
+    <externalReference r:id="rId54"/>
+    <externalReference r:id="rId55"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="191">
   <si>
     <t>T° real</t>
   </si>
@@ -546,6 +548,111 @@
   </si>
   <si>
     <t>2023-12-11 08:07:27</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:13:15</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:12:56</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:48:24</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:50:16</t>
+  </si>
+  <si>
+    <t>2023-12-11 22:57:25</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:40:04</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:54:44</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:54:20</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:32:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:33:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:39:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:38:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:11:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:13:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:33:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:32:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:00:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:03:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:18:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:17:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:51:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:07:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:20:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:19:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:52:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:57:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:04:39</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:04:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:39:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:46:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:54:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:53:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 05:28:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 05:30:47</t>
+  </si>
+  <si>
+    <t>T° medida</t>
   </si>
 </sst>
 </file>
@@ -600,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -647,6 +754,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,74 +892,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Gráficos!$A$2:$A$23</c:f>
+              <c:f>Gráficos!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -857,74 +970,77 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gráficos!$A$2:$A$23</c:f>
+              <c:f>Gráficos!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -952,210 +1068,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráficos!$B$1</c:f>
+              <c:f>Gráficos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T° logger 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gráficos!$A$2:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gráficos!$B$2:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>24.171169739351509</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.587094723458314</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.812301335028572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.311665607120116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.775270184361009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.381913541004359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.511760966306355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.915766052129626</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.986013986013912</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.211220597584155</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.460267005721501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.335982199618464</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.407501589319681</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.310870947234518</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.619516846789526</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.845994914176709</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.000953591862638</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.130801017164618</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.606325492689127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.8792116973935133</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.9494596312777741</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.6872218690400143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D64B-494F-AAF6-BC9DE90DF79C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gráficos!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T° logger 23</c:v>
+                  <c:v>T° medida</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1184,76 +1105,129 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15465418796334668"/>
+                  <c:y val="5.3446732318710832E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Gráficos!$A$2:$A$23</c:f>
+              <c:f>Gráficos!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1261,75 +1235,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gráficos!$C$2:$C$23</c:f>
+              <c:f>Gráficos!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>24.051970756516173</c:v>
+                  <c:v>25.297600127145554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.146058486967537</c:v>
+                  <c:v>24.647965670692912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.180546726001246</c:v>
+                  <c:v>23.55133502860771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.906389065479946</c:v>
+                  <c:v>22.913620470438602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.28655435473614</c:v>
+                  <c:v>22.544103623649043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.511760966306401</c:v>
+                  <c:v>21.995788302606464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.321042593769842</c:v>
+                  <c:v>21.107755880483111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.844246662428468</c:v>
+                  <c:v>20.4164017800381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.248251748251736</c:v>
+                  <c:v>19.838286713286688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.592657342657301</c:v>
+                  <c:v>19.576048951048911</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.103941513032371</c:v>
+                  <c:v>18.401938970120728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.183566433566403</c:v>
+                  <c:v>17.782104259376936</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.373013350286033</c:v>
+                  <c:v>16.971551176096575</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.312142403051491</c:v>
+                  <c:v>15.93452002542907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.40750158931978</c:v>
+                  <c:v>14.802129688493277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.097584233947838</c:v>
+                  <c:v>14.301493960584814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.121424030514907</c:v>
+                  <c:v>13.264462809917312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.394310235219292</c:v>
+                  <c:v>12.561188811188773</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.977113795295564</c:v>
+                  <c:v>11.762555626191954</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.130801017164629</c:v>
+                  <c:v>11.291719643992344</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.892403051493927</c:v>
+                  <c:v>10.505006357279072</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2355371900826633</c:v>
+                  <c:v>9.9209313413858506</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9613795295613379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1314,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D64B-494F-AAF6-BC9DE90DF79C}"/>
+              <c16:uniqueId val="{00000000-E053-48B1-B63B-D5937C67EDDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1351,6 +1328,452 @@
         </c:dLbls>
         <c:axId val="494855880"/>
         <c:axId val="494856536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>T° logger 6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$A$2:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$B$2:$B$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>25.029402415766011</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24.361888111888074</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23.730133502860728</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>23.146058486967529</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.585823267641402</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.287825810553063</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21.274634456452564</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20.511760966306355</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19.963445645263786</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>19.653528289891856</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>18.211220597584155</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17.460267005721501</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16.37555626191984</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15.684202161474825</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14.229974570883591</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>13.347902097902011</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>12.811506675142981</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>12.000953591862638</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>11.130801017164618</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10.606325492689127</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9.8792116973935133</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>8.9494596312777741</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8.6872218690400143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D64B-494F-AAF6-BC9DE90DF79C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>T° logger 23</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$A$2:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Gráficos!$C$2:$C$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>25.565797838525096</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24.934043229497753</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23.372536554354692</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.681182453909674</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.502383979656681</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21.703750794659864</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20.940877304513656</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20.321042593769842</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19.713127781309591</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>19.498569612205966</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>18.592657342657301</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>18.103941513032371</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17.567546090273311</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>16.184837889383314</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15.374284806102965</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15.255085823267619</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>13.717418944691644</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>13.121424030514907</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>12.394310235219292</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>11.977113795295564</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>11.130801017164629</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>10.892403051493927</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9.2355371900826633</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D64B-494F-AAF6-BC9DE90DF79C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="494855880"/>
@@ -1418,7 +1841,6 @@
         <c:axId val="494856536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2115,16 +2537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2157,29 +2579,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>6.3310185141745023E-3</v>
+            <v>1.2453703704522923E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>24.171169739351509</v>
+            <v>24.361888111888074</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15912059691003405</v>
+            <v>0.13111888111885933</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>24.493006993006901</v>
+            <v>24.624125874125799</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>23.968531468531399</v>
+            <v>24.230769230769202</v>
           </cell>
         </row>
       </sheetData>
@@ -2199,29 +2621,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.1550925935734995E-3</v>
+            <v>1.0104166663950309E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>21.28655435473614</v>
+            <v>21.703750794659864</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.16958123881542894</v>
+            <v>0.20389647155180399</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>21.608391608391599</v>
+            <v>22.132867132867101</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>20.9527972027972</v>
+            <v>21.477272727272702</v>
           </cell>
         </row>
       </sheetData>
@@ -2241,24 +2663,24 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.0555555556493346E-2</v>
+            <v>4.1550925961928442E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>21.381913541004359</v>
+            <v>21.274634456452564</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15614611786850341</v>
+            <v>0.14792204759206465</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>21.6083916083915</v>
+            <v>21.477272727272599</v>
           </cell>
         </row>
         <row r="11">
@@ -2283,29 +2705,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.2824074090458453E-3</v>
+            <v>9.3171296248328872E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>20.511760966306401</v>
+            <v>20.940877304513656</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.13464737361513623</v>
+            <v>0.22293715366986896</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>20.821678321678299</v>
+            <v>21.346153846153801</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>20.2972027972028</v>
+            <v>20.5594405594405</v>
           </cell>
         </row>
       </sheetData>
@@ -2613,29 +3035,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>8.6574074084637687E-3</v>
+            <v>6.0763888832298107E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>24.051970756516173</v>
+            <v>24.934043229497753</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.59589954736049744</v>
+            <v>0.30622773153209359</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>24.886363636363601</v>
+            <v>25.1486013986014</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>23.444055944055901</v>
+            <v>24.361888111888099</v>
           </cell>
         </row>
       </sheetData>
@@ -2697,19 +3119,19 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.814814809942618E-3</v>
+            <v>1.1157407410792075E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>19.915766052129626</v>
+            <v>19.963445645263786</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.13694920486025325</v>
+            <v>0.21435941207244144</v>
           </cell>
         </row>
         <row r="8">
@@ -2719,7 +3141,7 @@
         </row>
         <row r="11">
           <cell r="E11">
-            <v>19.641608391608301</v>
+            <v>19.379370629370602</v>
           </cell>
         </row>
       </sheetData>
@@ -2739,29 +3161,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.2708333322661929E-3</v>
+            <v>6.4699074064265005E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>19.844246662428468</v>
+            <v>19.713127781309591</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.2372029808741063</v>
+            <v>0.16958123881541934</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>20.166083916083899</v>
+            <v>20.034965034965001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>19.379370629370602</v>
+            <v>19.510489510489499</v>
           </cell>
         </row>
       </sheetData>
@@ -2781,29 +3203,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.1041666664823424E-2</v>
+            <v>9.6759259249665774E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>18.986013986013912</v>
+            <v>19.653528289891856</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.17591443878932148</v>
+            <v>0.34915333397673137</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>19.117132867132799</v>
+            <v>20.034965034965001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>18.592657342657301</v>
+            <v>18.986013986013901</v>
           </cell>
         </row>
       </sheetData>
@@ -2823,29 +3245,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.211805555067258E-2</v>
+            <v>8.5069444467080757E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>19.248251748251736</v>
+            <v>19.498569612205966</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.17591443878930005</v>
+            <v>0.10898724841701257</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>19.510489510489499</v>
+            <v>19.641608391608401</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>18.986013986014001</v>
+            <v>19.379370629370602</v>
           </cell>
         </row>
       </sheetData>
@@ -3033,29 +3455,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>2.2175925929332152E-2</v>
+            <v>9.8495370330056176E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>13.335982199618464</v>
+            <v>16.37555626191984</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.12376046426337556</v>
+            <v>0.31824119382004967</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>13.4790209790209</v>
+            <v>17.019230769230699</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>13.216783216783099</v>
+            <v>15.9702797202797</v>
           </cell>
         </row>
       </sheetData>
@@ -3075,24 +3497,24 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>7.025462960882578E-3</v>
+            <v>9.9074074023519643E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>23.587094723458314</v>
+            <v>23.730133502860728</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.14897488684011514</v>
+            <v>0.17412845914484745</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>23.837412587412501</v>
+            <v>23.968531468531399</v>
           </cell>
         </row>
         <row r="11">
@@ -3117,29 +3539,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.8599537033878732E-2</v>
+            <v>4.2824074043892324E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>15.183566433566403</v>
+            <v>17.567546090273311</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.13111888111890019</v>
+            <v>0.26104305095725211</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>15.314685314685301</v>
+            <v>17.937062937062901</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>14.921328671328601</v>
+            <v>17.1503496503496</v>
           </cell>
         </row>
       </sheetData>
@@ -3159,29 +3581,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.1192129633855075E-2</v>
+            <v>8.55324073927477E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>13.407501589319681</v>
+            <v>15.684202161474825</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.10754364496479599</v>
+            <v>0.18373663891926684</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>13.4790209790209</v>
+            <v>15.9702797202797</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>13.216783216783099</v>
+            <v>15.445804195804101</v>
           </cell>
         </row>
       </sheetData>
@@ -3201,29 +3623,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.2199074073578231E-2</v>
+            <v>9.9768518484779634E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>14.373013350286033</v>
+            <v>16.184837889383314</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15311386576604064</v>
+            <v>0.1879416829958753</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>14.527972027972</v>
+            <v>16.625874125874098</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>14.134615384615399</v>
+            <v>15.9702797202797</v>
           </cell>
         </row>
       </sheetData>
@@ -3243,29 +3665,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.0659722225682344E-2</v>
+            <v>1.2546296296932269E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>12.310870947234518</v>
+            <v>14.229974570883591</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.24498218522565796</v>
+            <v>8.4790619407729959E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>12.692307692307599</v>
+            <v>14.265734265734199</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>12.0367132867132</v>
+            <v>14.0034965034964</v>
           </cell>
         </row>
       </sheetData>
@@ -3285,29 +3707,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>4.2592592581058852E-3</v>
+            <v>1.3715277775190771E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>13.312142403051491</v>
+            <v>15.374284806102965</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.14471757988663417</v>
+            <v>0.135803166261523</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>13.479020979021</v>
+            <v>15.576923076923</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>13.085664335664299</v>
+            <v>15.1835664335664</v>
           </cell>
         </row>
       </sheetData>
@@ -3327,29 +3749,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.1550925935734995E-3</v>
+            <v>1.0289351856044959E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>11.619516846789526</v>
+            <v>13.347902097902011</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.12871282568367812</v>
+            <v>0.13111888111888029</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>11.7744755244755</v>
+            <v>13.4790209790209</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>11.3811188811188</v>
+            <v>13.085664335664299</v>
           </cell>
         </row>
       </sheetData>
@@ -3369,29 +3791,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.3518518551718444E-3</v>
+            <v>4.3287037042318843E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>13.40750158931978</v>
+            <v>15.255085823267619</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>9.015100318432144E-2</v>
+            <v>0.10754364496479615</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>13.479020979021</v>
+            <v>15.4458041958042</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>13.216783216783201</v>
+            <v>15.0524475524475</v>
           </cell>
         </row>
       </sheetData>
@@ -3411,29 +3833,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.8379629562259652E-3</v>
+            <v>1.4456018514465541E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>11.845994914176709</v>
+            <v>12.811506675142981</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15912059691003339</v>
+            <v>0.22293715366985245</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>12.167832167832101</v>
+            <v>13.085664335664299</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>11.643356643356601</v>
+            <v>12.4300699300699</v>
           </cell>
         </row>
       </sheetData>
@@ -3453,29 +3875,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.4537037037371192E-2</v>
+            <v>1.134259258833481E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>13.097584233947838</v>
+            <v>13.717418944691644</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.12376046426337538</v>
+            <v>0.16395819005768134</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>13.3479020979021</v>
+            <v>14.0034965034965</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>12.9545454545454</v>
+            <v>13.479020979021</v>
           </cell>
         </row>
       </sheetData>
@@ -3537,19 +3959,19 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.3287037088884972E-3</v>
+            <v>1.2696759258687962E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>23.146058486967537</v>
+            <v>23.372536554354692</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.51485130273462165</v>
+            <v>0.30108068039530317</v>
           </cell>
         </row>
         <row r="8">
@@ -3559,7 +3981,7 @@
         </row>
         <row r="11">
           <cell r="E11">
-            <v>22.6573426573426</v>
+            <v>23.0506993006993</v>
           </cell>
         </row>
       </sheetData>
@@ -3999,29 +4421,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.1909722226846498E-2</v>
+            <v>1.3425925928459037E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>22.812301335028572</v>
+            <v>23.146058486967529</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15311386576605571</v>
+            <v>0.15614611786850843</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>23.0506993006993</v>
+            <v>23.444055944055901</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>22.6573426573426</v>
+            <v>22.919580419580399</v>
           </cell>
         </row>
       </sheetData>
@@ -4072,6 +4494,90 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datos crudos"/>
+      <sheetName val="Datos válidos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>1.0462962964083999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>25.029402415766011</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>9.1868319459594547E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>25.148601398601301</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>24.886363636363601</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datos crudos"/>
+      <sheetName val="Datos válidos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>8.4722222163691185E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>25.565797838525096</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0.42210579806800547</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>25.935314685314701</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>24.361888111888099</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4083,29 +4589,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.3680555559403729E-2</v>
+            <v>9.8148148172185756E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>22.180546726001246</v>
+            <v>22.681182453909674</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.12120842802499628</v>
+            <v>0.31478463149848956</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>22.3951048951049</v>
+            <v>23.575174825174798</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>22.0017482517482</v>
+            <v>22.3951048951049</v>
           </cell>
         </row>
       </sheetData>
@@ -4125,29 +4631,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.1550925935734995E-3</v>
+            <v>4.3055555579485372E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>22.311665607120116</v>
+            <v>22.585823267641402</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.15813532058272428</v>
+            <v>0.10754364496476027</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>22.526223776223699</v>
+            <v>22.6573426573426</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>22.132867132867101</v>
+            <v>22.3951048951049</v>
           </cell>
         </row>
       </sheetData>
@@ -4167,29 +4673,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>7.9513888849760406E-3</v>
+            <v>8.7731481544324197E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>21.906389065479946</v>
+            <v>22.502383979656681</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.22779172000491135</v>
+            <v>0.28010492863317021</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>22.263986013985999</v>
+            <v>23.0506993006993</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>21.608391608391599</v>
+            <v>22.132867132867101</v>
           </cell>
         </row>
       </sheetData>
@@ -4209,29 +4715,29 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>1.1782407404098194E-2</v>
+            <v>6.3541666677338071E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
-            <v>21.775270184361009</v>
+            <v>22.287825810553063</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>0.1186014904370742</v>
+            <v>0.1837366389192466</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>22.0017482517482</v>
+            <v>22.6573426573426</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>21.6083916083915</v>
+            <v>22.0017482517482</v>
           </cell>
         </row>
       </sheetData>
@@ -4569,7 +5075,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -4584,31 +5090,31 @@
       <c r="E2" s="11">
         <v>34</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="23">
         <v>24.5</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="23">
         <v>23.5</v>
       </c>
       <c r="H2">
         <f>'[1]Datos válidos'!$E$2</f>
-        <v>24.171169739351509</v>
+        <v>24.361888111888074</v>
       </c>
       <c r="I2">
         <f>'[1]Datos válidos'!$E$8</f>
-        <v>24.493006993006901</v>
+        <v>24.624125874125799</v>
       </c>
       <c r="J2" s="3">
         <f>'[1]Datos válidos'!$E$11</f>
-        <v>23.968531468531399</v>
+        <v>24.230769230769202</v>
       </c>
       <c r="K2" s="3">
         <f>'[1]Datos válidos'!$E$5</f>
-        <v>0.15912059691003405</v>
+        <v>0.13111888111885933</v>
       </c>
       <c r="L2" s="10">
         <f>'[1]Datos crudos'!$I$2</f>
-        <v>6.3310185141745023E-3</v>
+        <v>1.2453703704522923E-2</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2" t="s">
@@ -4616,7 +5122,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4">
         <v>23</v>
       </c>
@@ -4629,32 +5135,32 @@
       <c r="E3" s="11">
         <v>35</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3">
         <f>'[2]Datos válidos'!$E$2</f>
-        <v>24.051970756516173</v>
+        <v>24.934043229497753</v>
       </c>
       <c r="I3">
         <f>'[2]Datos válidos'!$E$8</f>
-        <v>24.886363636363601</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="J3" s="3">
         <f>'[2]Datos válidos'!$E$11</f>
-        <v>23.444055944055901</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="K3" s="3">
         <f>'[2]Datos válidos'!$E$5</f>
-        <v>0.59589954736049744</v>
+        <v>0.30622773153209359</v>
       </c>
       <c r="L3" s="10">
         <f>'[2]Datos crudos'!$I$2</f>
-        <v>8.6574074084637687E-3</v>
+        <v>6.0763888832298107E-3</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>23</v>
       </c>
       <c r="B4" s="4">
@@ -4669,19 +5175,19 @@
       <c r="E4" s="11">
         <v>35</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <v>23.5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <v>22.5</v>
       </c>
       <c r="H4">
         <f>'[3]Datos válidos'!$E$2</f>
-        <v>23.587094723458314</v>
+        <v>23.730133502860728</v>
       </c>
       <c r="I4">
         <f>'[3]Datos válidos'!$E$8</f>
-        <v>23.837412587412501</v>
+        <v>23.968531468531399</v>
       </c>
       <c r="J4">
         <f>'[3]Datos válidos'!$E$11</f>
@@ -4689,15 +5195,15 @@
       </c>
       <c r="K4">
         <f>'[3]Datos válidos'!$E$5</f>
-        <v>0.14897488684011514</v>
+        <v>0.17412845914484745</v>
       </c>
       <c r="L4" s="10">
         <f>'[3]Datos crudos'!$I$2</f>
-        <v>7.025462960882578E-3</v>
+        <v>9.9074074023519643E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4">
         <v>23</v>
       </c>
@@ -4710,11 +5216,11 @@
       <c r="E5" s="11">
         <v>32</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5">
         <f>'[4]Datos válidos'!$E$2</f>
-        <v>23.146058486967537</v>
+        <v>23.372536554354692</v>
       </c>
       <c r="I5">
         <f>'[4]Datos válidos'!$E$8</f>
@@ -4722,19 +5228,19 @@
       </c>
       <c r="J5">
         <f>'[4]Datos válidos'!$E$11</f>
-        <v>22.6573426573426</v>
+        <v>23.0506993006993</v>
       </c>
       <c r="K5">
         <f>'[4]Datos válidos'!$E$5</f>
-        <v>0.51485130273462165</v>
+        <v>0.30108068039530317</v>
       </c>
       <c r="L5" s="10">
         <f>'[4]Datos crudos'!$I$2</f>
-        <v>9.3287037088884972E-3</v>
+        <v>1.2696759258687962E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>22</v>
       </c>
       <c r="B6" s="4">
@@ -4749,35 +5255,35 @@
       <c r="E6" s="11">
         <v>37</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>22.5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>21.5</v>
       </c>
       <c r="H6">
         <f>'[5]Datos válidos'!$E$2</f>
-        <v>22.812301335028572</v>
+        <v>23.146058486967529</v>
       </c>
       <c r="I6">
         <f>'[5]Datos válidos'!$E$8</f>
-        <v>23.0506993006993</v>
+        <v>23.444055944055901</v>
       </c>
       <c r="J6">
         <f>'[5]Datos válidos'!$E$11</f>
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
       <c r="K6">
         <f>'[5]Datos válidos'!$E$5</f>
-        <v>0.15311386576605571</v>
+        <v>0.15614611786850843</v>
       </c>
       <c r="L6" s="10">
         <f>'[5]Datos crudos'!$I$2</f>
-        <v>1.1909722226846498E-2</v>
+        <v>1.3425925928459037E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4">
         <v>23</v>
       </c>
@@ -4790,31 +5296,31 @@
       <c r="E7" s="11">
         <v>37</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7">
         <f>'[6]Datos válidos'!$E$2</f>
-        <v>22.180546726001246</v>
+        <v>22.681182453909674</v>
       </c>
       <c r="I7">
         <f>'[6]Datos válidos'!$E$8</f>
-        <v>22.3951048951049</v>
+        <v>23.575174825174798</v>
       </c>
       <c r="J7">
         <f>'[6]Datos válidos'!$E$11</f>
-        <v>22.0017482517482</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="K7">
         <f>'[6]Datos válidos'!$E$5</f>
-        <v>0.12120842802499628</v>
+        <v>0.31478463149848956</v>
       </c>
       <c r="L7" s="10">
         <f>'[6]Datos crudos'!$I$2</f>
-        <v>1.3680555559403729E-2</v>
+        <v>9.8148148172185756E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>21</v>
       </c>
       <c r="B8" s="4">
@@ -4829,35 +5335,35 @@
       <c r="E8" s="12">
         <v>35</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>21.5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>20.5</v>
       </c>
       <c r="H8">
         <f>'[7]Datos válidos'!$E$2</f>
-        <v>22.311665607120116</v>
+        <v>22.585823267641402</v>
       </c>
       <c r="I8">
         <f>'[7]Datos válidos'!$E$8</f>
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="J8">
         <f>'[7]Datos válidos'!$E$11</f>
-        <v>22.132867132867101</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="K8">
         <f>'[7]Datos válidos'!$E$5</f>
-        <v>0.15813532058272428</v>
+        <v>0.10754364496476027</v>
       </c>
       <c r="L8" s="15">
         <f>'[7]Datos crudos'!$I$2</f>
-        <v>9.1550925935734995E-3</v>
+        <v>4.3055555579485372E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4">
         <v>23</v>
       </c>
@@ -4870,32 +5376,32 @@
       <c r="E9" s="11">
         <v>35</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9">
         <f>'[8]Datos válidos'!$E$2</f>
-        <v>21.906389065479946</v>
+        <v>22.502383979656681</v>
       </c>
       <c r="I9">
         <f>'[8]Datos válidos'!$E$8</f>
-        <v>22.263986013985999</v>
+        <v>23.0506993006993</v>
       </c>
       <c r="J9">
         <f>'[8]Datos válidos'!$E$11</f>
-        <v>21.608391608391599</v>
+        <v>22.132867132867101</v>
       </c>
       <c r="K9">
         <f>'[8]Datos válidos'!$E$5</f>
-        <v>0.22779172000491135</v>
+        <v>0.28010492863317021</v>
       </c>
       <c r="L9" s="15">
         <f>'[8]Datos crudos'!$I$2</f>
-        <v>7.9513888849760406E-3</v>
+        <v>8.7731481544324197E-3</v>
       </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>20</v>
       </c>
       <c r="B10" s="4">
@@ -4910,35 +5416,35 @@
       <c r="E10" s="11">
         <v>44</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>20.6</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>19.399999999999999</v>
       </c>
       <c r="H10">
         <f>'[9]Datos válidos'!$E$2</f>
-        <v>21.775270184361009</v>
+        <v>22.287825810553063</v>
       </c>
       <c r="I10">
         <f>'[9]Datos válidos'!$E$8</f>
-        <v>22.0017482517482</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="J10">
         <f>'[9]Datos válidos'!$E$11</f>
-        <v>21.6083916083915</v>
+        <v>22.0017482517482</v>
       </c>
       <c r="K10">
         <f>'[9]Datos válidos'!$E$5</f>
-        <v>0.1186014904370742</v>
+        <v>0.1837366389192466</v>
       </c>
       <c r="L10" s="15">
         <f>'[9]Datos crudos'!$I$2</f>
-        <v>1.1782407404098194E-2</v>
+        <v>6.3541666677338071E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4">
         <v>23</v>
       </c>
@@ -4951,31 +5457,31 @@
       <c r="E11" s="12">
         <v>44</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11">
         <f>'[10]Datos válidos'!$E$2</f>
-        <v>21.28655435473614</v>
+        <v>21.703750794659864</v>
       </c>
       <c r="I11">
         <f>'[10]Datos válidos'!$E$8</f>
-        <v>21.608391608391599</v>
+        <v>22.132867132867101</v>
       </c>
       <c r="J11">
         <f>'[10]Datos válidos'!$E$11</f>
-        <v>20.9527972027972</v>
+        <v>21.477272727272702</v>
       </c>
       <c r="K11">
         <f>'[10]Datos válidos'!$E$5</f>
-        <v>0.16958123881542894</v>
+        <v>0.20389647155180399</v>
       </c>
       <c r="L11" s="15">
         <f>'[10]Datos crudos'!$I$2</f>
-        <v>9.1550925935734995E-3</v>
+        <v>1.0104166663950309E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="23">
         <v>19</v>
       </c>
       <c r="B12" s="4">
@@ -4990,19 +5496,19 @@
       <c r="E12" s="11">
         <v>35</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>19.600000000000001</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>18.399999999999999</v>
       </c>
       <c r="H12">
         <f>'[11]Datos válidos'!$E$2</f>
-        <v>21.381913541004359</v>
+        <v>21.274634456452564</v>
       </c>
       <c r="I12">
         <f>'[11]Datos válidos'!$E$8</f>
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
       <c r="J12">
         <f>'[11]Datos válidos'!$E$11</f>
@@ -5010,15 +5516,15 @@
       </c>
       <c r="K12">
         <f>'[11]Datos válidos'!$E$5</f>
-        <v>0.15614611786850341</v>
+        <v>0.14792204759206465</v>
       </c>
       <c r="L12" s="10">
         <f>'[11]Datos crudos'!$I$2</f>
-        <v>1.0555555556493346E-2</v>
+        <v>4.1550925961928442E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4">
         <v>23</v>
       </c>
@@ -5031,31 +5537,31 @@
       <c r="E13" s="11">
         <v>36</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13">
         <f>'[12]Datos válidos'!$E$2</f>
-        <v>20.511760966306401</v>
+        <v>20.940877304513656</v>
       </c>
       <c r="I13">
         <f>'[12]Datos válidos'!$E$8</f>
-        <v>20.821678321678299</v>
+        <v>21.346153846153801</v>
       </c>
       <c r="J13">
         <f>'[12]Datos válidos'!$E$11</f>
-        <v>20.2972027972028</v>
+        <v>20.5594405594405</v>
       </c>
       <c r="K13">
         <f>'[12]Datos válidos'!$E$5</f>
-        <v>0.13464737361513623</v>
+        <v>0.22293715366986896</v>
       </c>
       <c r="L13" s="10">
         <f>'[12]Datos crudos'!$I$2</f>
-        <v>9.2824074090458453E-3</v>
+        <v>9.3171296248328872E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>18</v>
       </c>
       <c r="B14" s="4">
@@ -5070,10 +5576,10 @@
       <c r="E14" s="11">
         <v>39</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>18.600000000000001</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>17.399999999999999</v>
       </c>
       <c r="H14">
@@ -5098,7 +5604,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4">
         <v>23</v>
       </c>
@@ -5111,8 +5617,8 @@
       <c r="E15" s="11">
         <v>40</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15">
         <f>'[15]Datos válidos'!$E$2</f>
         <v>20.368722186903984</v>
@@ -5135,7 +5641,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <v>17</v>
       </c>
       <c r="B16" s="4">
@@ -5150,10 +5656,10 @@
       <c r="E16" s="11">
         <v>38</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>17.7</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>16.3</v>
       </c>
       <c r="H16">
@@ -5178,7 +5684,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4">
         <v>23</v>
       </c>
@@ -5191,8 +5697,8 @@
       <c r="E17" s="11">
         <v>38</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17">
         <f>'[17]Datos válidos'!$E$2</f>
         <v>19.713127781309591</v>
@@ -5215,7 +5721,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
       <c r="B18" s="4">
@@ -5230,10 +5736,10 @@
       <c r="E18" s="11">
         <v>33</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>16.600000000000001</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="23">
         <v>15.5</v>
       </c>
       <c r="H18">
@@ -5258,7 +5764,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4">
         <v>23</v>
       </c>
@@ -5271,8 +5777,8 @@
       <c r="E19" s="11">
         <v>32</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19">
         <f>'[19]Datos válidos'!$E$2</f>
         <v>19.498569612205966</v>
@@ -5295,7 +5801,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>15</v>
       </c>
       <c r="B20" s="4">
@@ -5310,15 +5816,15 @@
       <c r="E20" s="11">
         <v>38</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="23">
         <v>15.6</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <v>14.3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4">
         <v>23</v>
       </c>
@@ -5331,52 +5837,52 @@
       <c r="E21" s="11">
         <v>40</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>14</v>
       </c>
       <c r="B22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="23">
         <v>14.5</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="23">
         <v>13.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4">
         <v>23</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>6</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>13.5</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -5424,10 +5930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5480,1934 +5986,2137 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>24</v>
+      <c r="A2" s="23">
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="22">
-        <v>24.5</v>
-      </c>
-      <c r="G2" s="22">
-        <v>23.5</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="11">
+        <v>36</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2">
-        <f>'[1]Datos válidos'!$E$2</f>
-        <v>24.171169739351509</v>
+        <f>'[51]Datos válidos'!$E$2</f>
+        <v>25.029402415766011</v>
       </c>
       <c r="I2">
-        <f>'[1]Datos válidos'!$E$8</f>
-        <v>24.493006993006901</v>
+        <f>'[51]Datos válidos'!$E$8</f>
+        <v>25.148601398601301</v>
       </c>
       <c r="J2" s="3">
-        <f>'[1]Datos válidos'!$E$11</f>
-        <v>23.968531468531399</v>
+        <f>'[51]Datos válidos'!$E$11</f>
+        <v>24.886363636363601</v>
       </c>
       <c r="K2" s="3">
-        <f>'[1]Datos válidos'!$E$5</f>
-        <v>0.15912059691003405</v>
+        <f>'[51]Datos válidos'!$E$5</f>
+        <v>9.1868319459594547E-2</v>
       </c>
       <c r="L2" s="19">
-        <f>'[1]Datos crudos'!$I$2</f>
-        <v>6.3310185141745023E-3</v>
-      </c>
-      <c r="M2" s="1"/>
+        <f>'[51]Datos crudos'!$I$2</f>
+        <v>1.0462962964083999E-2</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4">
         <v>23</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="11">
+        <v>37</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3">
-        <f>'[2]Datos válidos'!$E$2</f>
-        <v>24.051970756516173</v>
+        <f>'[52]Datos válidos'!$E$2</f>
+        <v>25.565797838525096</v>
       </c>
       <c r="I3">
-        <f>'[2]Datos válidos'!$E$8</f>
-        <v>24.886363636363601</v>
+        <f>'[52]Datos válidos'!$E$8</f>
+        <v>25.935314685314701</v>
       </c>
       <c r="J3" s="3">
-        <f>'[2]Datos válidos'!$E$11</f>
-        <v>23.444055944055901</v>
+        <f>'[52]Datos válidos'!$E$11</f>
+        <v>24.361888111888099</v>
       </c>
       <c r="K3" s="3">
-        <f>'[2]Datos válidos'!$E$5</f>
-        <v>0.59589954736049744</v>
+        <f>'[52]Datos válidos'!$E$5</f>
+        <v>0.42210579806800547</v>
       </c>
       <c r="L3" s="19">
-        <f>'[2]Datos crudos'!$I$2</f>
-        <v>8.6574074084637687E-3</v>
-      </c>
-      <c r="M3" s="1"/>
+        <f>'[52]Datos crudos'!$I$2</f>
+        <v>8.4722222163691185E-3</v>
+      </c>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>23</v>
+      <c r="A4" s="23">
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="22">
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36</v>
+      </c>
+      <c r="F4" s="23">
+        <v>24.5</v>
+      </c>
+      <c r="G4" s="23">
         <v>23.5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4">
+        <f>'[1]Datos válidos'!$E$2</f>
+        <v>24.361888111888074</v>
+      </c>
+      <c r="I4">
+        <f>'[1]Datos válidos'!$E$8</f>
+        <v>24.624125874125799</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'[1]Datos válidos'!$E$11</f>
+        <v>24.230769230769202</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'[1]Datos válidos'!$E$5</f>
+        <v>0.13111888111885933</v>
+      </c>
+      <c r="L4" s="19">
+        <f>'[1]Datos crudos'!$I$2</f>
+        <v>1.2453703704522923E-2</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="4">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="11">
+        <v>42</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5">
+        <f>'[2]Datos válidos'!$E$2</f>
+        <v>24.934043229497753</v>
+      </c>
+      <c r="I5">
+        <f>'[2]Datos válidos'!$E$8</f>
+        <v>25.1486013986014</v>
+      </c>
+      <c r="J5" s="3">
+        <f>'[2]Datos válidos'!$E$11</f>
+        <v>24.361888111888099</v>
+      </c>
+      <c r="K5" s="3">
+        <f>'[2]Datos válidos'!$E$5</f>
+        <v>0.30622773153209359</v>
+      </c>
+      <c r="L5" s="19">
+        <f>'[2]Datos crudos'!$I$2</f>
+        <v>6.0763888832298107E-3</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="12">
+        <v>33</v>
+      </c>
+      <c r="F6" s="23">
+        <v>23.5</v>
+      </c>
+      <c r="G6" s="23">
         <v>22.5</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <f>'[3]Datos válidos'!$E$2</f>
-        <v>23.587094723458314</v>
-      </c>
-      <c r="I4">
+        <v>23.730133502860728</v>
+      </c>
+      <c r="I6">
         <f>'[3]Datos válidos'!$E$8</f>
-        <v>23.837412587412501</v>
-      </c>
-      <c r="J4">
+        <v>23.968531468531399</v>
+      </c>
+      <c r="J6">
         <f>'[3]Datos válidos'!$E$11</f>
         <v>23.444055944055901</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <f>'[3]Datos válidos'!$E$5</f>
-        <v>0.14897488684011514</v>
-      </c>
-      <c r="L4" s="19">
+        <v>0.17412845914484745</v>
+      </c>
+      <c r="L6" s="19">
         <f>'[3]Datos crudos'!$I$2</f>
-        <v>7.025462960882578E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="4">
+        <v>9.9074074023519643E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="4">
         <v>23</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5">
+      <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="11">
+        <v>37</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7">
         <f>'[4]Datos válidos'!$E$2</f>
-        <v>23.146058486967537</v>
-      </c>
-      <c r="I5">
+        <v>23.372536554354692</v>
+      </c>
+      <c r="I7">
         <f>'[4]Datos válidos'!$E$8</f>
         <v>24.0996503496503</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <f>'[4]Datos válidos'!$E$11</f>
-        <v>22.6573426573426</v>
-      </c>
-      <c r="K5">
+        <v>23.0506993006993</v>
+      </c>
+      <c r="K7">
         <f>'[4]Datos válidos'!$E$5</f>
-        <v>0.51485130273462165</v>
-      </c>
-      <c r="L5" s="19">
+        <v>0.30108068039530317</v>
+      </c>
+      <c r="L7" s="19">
         <f>'[4]Datos crudos'!$I$2</f>
-        <v>9.3287037088884972E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+        <v>1.2696759258687962E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>22</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="G6" s="22">
-        <v>21.5</v>
-      </c>
-      <c r="H6">
-        <f>'[5]Datos válidos'!$E$2</f>
-        <v>22.812301335028572</v>
-      </c>
-      <c r="I6">
-        <f>'[5]Datos válidos'!$E$8</f>
-        <v>23.0506993006993</v>
-      </c>
-      <c r="J6">
-        <f>'[5]Datos válidos'!$E$11</f>
-        <v>22.6573426573426</v>
-      </c>
-      <c r="K6">
-        <f>'[5]Datos válidos'!$E$5</f>
-        <v>0.15311386576605571</v>
-      </c>
-      <c r="L6" s="19">
-        <f>'[5]Datos crudos'!$I$2</f>
-        <v>1.1909722226846498E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="4">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7">
-        <f>'[6]Datos válidos'!$E$2</f>
-        <v>22.180546726001246</v>
-      </c>
-      <c r="I7">
-        <f>'[6]Datos válidos'!$E$8</f>
-        <v>22.3951048951049</v>
-      </c>
-      <c r="J7">
-        <f>'[6]Datos válidos'!$E$11</f>
-        <v>22.0017482517482</v>
-      </c>
-      <c r="K7">
-        <f>'[6]Datos válidos'!$E$5</f>
-        <v>0.12120842802499628</v>
-      </c>
-      <c r="L7" s="19">
-        <f>'[6]Datos crudos'!$I$2</f>
-        <v>1.3680555559403729E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="22">
+      <c r="C8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="11">
+        <v>34</v>
+      </c>
+      <c r="F8" s="23">
+        <v>22.5</v>
+      </c>
+      <c r="G8" s="23">
         <v>21.5</v>
       </c>
-      <c r="G8" s="22">
-        <v>20.5</v>
-      </c>
       <c r="H8">
-        <f>'[7]Datos válidos'!$E$2</f>
-        <v>22.311665607120116</v>
+        <f>'[5]Datos válidos'!$E$2</f>
+        <v>23.146058486967529</v>
       </c>
       <c r="I8">
-        <f>'[7]Datos válidos'!$E$8</f>
-        <v>22.526223776223699</v>
+        <f>'[5]Datos válidos'!$E$8</f>
+        <v>23.444055944055901</v>
       </c>
       <c r="J8">
-        <f>'[7]Datos válidos'!$E$11</f>
-        <v>22.132867132867101</v>
+        <f>'[5]Datos válidos'!$E$11</f>
+        <v>22.919580419580399</v>
       </c>
       <c r="K8">
-        <f>'[7]Datos válidos'!$E$5</f>
-        <v>0.15813532058272428</v>
-      </c>
-      <c r="L8" s="21">
-        <f>'[7]Datos crudos'!$I$2</f>
-        <v>9.1550925935734995E-3</v>
+        <f>'[5]Datos válidos'!$E$5</f>
+        <v>0.15614611786850843</v>
+      </c>
+      <c r="L8" s="19">
+        <f>'[5]Datos crudos'!$I$2</f>
+        <v>1.3425925928459037E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4">
         <v>23</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="11">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9">
-        <f>'[8]Datos válidos'!$E$2</f>
-        <v>21.906389065479946</v>
+        <f>'[6]Datos válidos'!$E$2</f>
+        <v>22.681182453909674</v>
       </c>
       <c r="I9">
-        <f>'[8]Datos válidos'!$E$8</f>
-        <v>22.263986013985999</v>
+        <f>'[6]Datos válidos'!$E$8</f>
+        <v>23.575174825174798</v>
       </c>
       <c r="J9">
-        <f>'[8]Datos válidos'!$E$11</f>
-        <v>21.608391608391599</v>
+        <f>'[6]Datos válidos'!$E$11</f>
+        <v>22.3951048951049</v>
       </c>
       <c r="K9">
-        <f>'[8]Datos válidos'!$E$5</f>
-        <v>0.22779172000491135</v>
-      </c>
-      <c r="L9" s="21">
-        <f>'[8]Datos crudos'!$I$2</f>
-        <v>7.9513888849760406E-3</v>
-      </c>
-      <c r="M9" s="3"/>
+        <f>'[6]Datos válidos'!$E$5</f>
+        <v>0.31478463149848956</v>
+      </c>
+      <c r="L9" s="19">
+        <f>'[6]Datos crudos'!$I$2</f>
+        <v>9.8148148172185756E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>20</v>
+      <c r="A10" s="23">
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22">
-        <v>20.6</v>
-      </c>
-      <c r="G10" s="22">
-        <v>19.399999999999999</v>
+      <c r="C10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="12">
+        <v>28</v>
+      </c>
+      <c r="F10" s="23">
+        <v>21.5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>20.5</v>
       </c>
       <c r="H10">
-        <f>'[9]Datos válidos'!$E$2</f>
-        <v>21.775270184361009</v>
+        <f>'[7]Datos válidos'!$E$2</f>
+        <v>22.585823267641402</v>
       </c>
       <c r="I10">
-        <f>'[9]Datos válidos'!$E$8</f>
-        <v>22.0017482517482</v>
+        <f>'[7]Datos válidos'!$E$8</f>
+        <v>22.6573426573426</v>
       </c>
       <c r="J10">
-        <f>'[9]Datos válidos'!$E$11</f>
-        <v>21.6083916083915</v>
+        <f>'[7]Datos válidos'!$E$11</f>
+        <v>22.3951048951049</v>
       </c>
       <c r="K10">
-        <f>'[9]Datos válidos'!$E$5</f>
-        <v>0.1186014904370742</v>
+        <f>'[7]Datos válidos'!$E$5</f>
+        <v>0.10754364496476027</v>
       </c>
       <c r="L10" s="21">
-        <f>'[9]Datos crudos'!$I$2</f>
-        <v>1.1782407404098194E-2</v>
+        <f>'[7]Datos crudos'!$I$2</f>
+        <v>4.3055555579485372E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="11">
+        <v>29</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11">
-        <f>'[10]Datos válidos'!$E$2</f>
-        <v>21.28655435473614</v>
+        <f>'[8]Datos válidos'!$E$2</f>
+        <v>22.502383979656681</v>
       </c>
       <c r="I11">
-        <f>'[10]Datos válidos'!$E$8</f>
-        <v>21.608391608391599</v>
+        <f>'[8]Datos válidos'!$E$8</f>
+        <v>23.0506993006993</v>
       </c>
       <c r="J11">
-        <f>'[10]Datos válidos'!$E$11</f>
-        <v>20.9527972027972</v>
+        <f>'[8]Datos válidos'!$E$11</f>
+        <v>22.132867132867101</v>
       </c>
       <c r="K11">
-        <f>'[10]Datos válidos'!$E$5</f>
-        <v>0.16958123881542894</v>
+        <f>'[8]Datos válidos'!$E$5</f>
+        <v>0.28010492863317021</v>
       </c>
       <c r="L11" s="21">
-        <f>'[10]Datos crudos'!$I$2</f>
-        <v>9.1550925935734995E-3</v>
-      </c>
+        <f>'[8]Datos crudos'!$I$2</f>
+        <v>8.7731481544324197E-3</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>19</v>
+      <c r="A12" s="23">
+        <v>20</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22">
+      <c r="C12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="11">
+        <v>33</v>
+      </c>
+      <c r="F12" s="23">
+        <v>20.6</v>
+      </c>
+      <c r="G12" s="23">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H12">
+        <f>'[9]Datos válidos'!$E$2</f>
+        <v>22.287825810553063</v>
+      </c>
+      <c r="I12">
+        <f>'[9]Datos válidos'!$E$8</f>
+        <v>22.6573426573426</v>
+      </c>
+      <c r="J12">
+        <f>'[9]Datos válidos'!$E$11</f>
+        <v>22.0017482517482</v>
+      </c>
+      <c r="K12">
+        <f>'[9]Datos válidos'!$E$5</f>
+        <v>0.1837366389192466</v>
+      </c>
+      <c r="L12" s="21">
+        <f>'[9]Datos crudos'!$I$2</f>
+        <v>6.3541666677338071E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="4">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="12">
+        <v>34</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13">
+        <f>'[10]Datos válidos'!$E$2</f>
+        <v>21.703750794659864</v>
+      </c>
+      <c r="I13">
+        <f>'[10]Datos válidos'!$E$8</f>
+        <v>22.132867132867101</v>
+      </c>
+      <c r="J13">
+        <f>'[10]Datos válidos'!$E$11</f>
+        <v>21.477272727272702</v>
+      </c>
+      <c r="K13">
+        <f>'[10]Datos válidos'!$E$5</f>
+        <v>0.20389647155180399</v>
+      </c>
+      <c r="L13" s="21">
+        <f>'[10]Datos crudos'!$I$2</f>
+        <v>1.0104166663950309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="11">
+        <v>39</v>
+      </c>
+      <c r="F14" s="23">
         <v>19.600000000000001</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G14" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <f>'[11]Datos válidos'!$E$2</f>
-        <v>21.381913541004359</v>
-      </c>
-      <c r="I12">
+        <v>21.274634456452564</v>
+      </c>
+      <c r="I14">
         <f>'[11]Datos válidos'!$E$8</f>
-        <v>21.6083916083915</v>
-      </c>
-      <c r="J12">
+        <v>21.477272727272599</v>
+      </c>
+      <c r="J14">
         <f>'[11]Datos válidos'!$E$11</f>
         <v>21.083916083916002</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <f>'[11]Datos válidos'!$E$5</f>
-        <v>0.15614611786850341</v>
-      </c>
-      <c r="L12" s="19">
+        <v>0.14792204759206465</v>
+      </c>
+      <c r="L14" s="19">
         <f>'[11]Datos crudos'!$I$2</f>
-        <v>1.0555555556493346E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="4">
+        <v>4.1550925961928442E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="4">
         <v>23</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13">
+      <c r="C15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="11">
+        <v>39</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15">
         <f>'[12]Datos válidos'!$E$2</f>
-        <v>20.511760966306401</v>
-      </c>
-      <c r="I13">
+        <v>20.940877304513656</v>
+      </c>
+      <c r="I15">
         <f>'[12]Datos válidos'!$E$8</f>
-        <v>20.821678321678299</v>
-      </c>
-      <c r="J13">
+        <v>21.346153846153801</v>
+      </c>
+      <c r="J15">
         <f>'[12]Datos válidos'!$E$11</f>
-        <v>20.2972027972028</v>
-      </c>
-      <c r="K13">
+        <v>20.5594405594405</v>
+      </c>
+      <c r="K15">
         <f>'[12]Datos válidos'!$E$5</f>
-        <v>0.13464737361513623</v>
-      </c>
-      <c r="L13" s="19">
+        <v>0.22293715366986896</v>
+      </c>
+      <c r="L15" s="19">
         <f>'[12]Datos crudos'!$I$2</f>
-        <v>9.2824074090458453E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+        <v>9.3171296248328872E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E16" s="16">
         <v>35</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F16" s="23">
         <v>18.5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G16" s="23">
         <v>17.399999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <f>'[14]Datos válidos'!$E$2</f>
         <v>20.511760966306355</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <f>'[14]Datos válidos'!$E$8</f>
         <v>20.690559440559401</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <f>'[14]Datos válidos'!$E$11</f>
         <v>20.297202797202701</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <f>'[14]Datos válidos'!$E$5</f>
         <v>0.16865708349484965</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L16" s="19">
         <f>'[14]Datos crudos'!$I$2</f>
         <v>9.1782407471328042E-3</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O16" s="11">
         <v>53</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R14">
+      <c r="R16">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="4">
         <v>23</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E17" s="16">
         <v>36</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17">
         <f>'[20]Datos válidos'!$E$2</f>
         <v>20.321042593769842</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <f>'[20]Datos válidos'!$E$8</f>
         <v>20.690559440559401</v>
       </c>
-      <c r="J15">
+      <c r="J17">
         <f>'[20]Datos válidos'!$E$11</f>
         <v>20.034965034965001</v>
       </c>
-      <c r="K15">
+      <c r="K17">
         <f>'[20]Datos válidos'!$E$5</f>
         <v>0.20158377135990171</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L17" s="19">
         <f>'[20]Datos crudos'!$I$2</f>
         <v>7.1759259299142286E-3</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O17" s="11">
         <v>52</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>34</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F18" s="23">
         <v>17.600000000000001</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G18" s="23">
         <v>16.399999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <f>'[21]Datos válidos'!$E$2</f>
-        <v>19.915766052129626</v>
-      </c>
-      <c r="I16" s="3">
+        <v>19.963445645263786</v>
+      </c>
+      <c r="I18" s="3">
         <f>'[21]Datos válidos'!$E$8</f>
         <v>20.166083916083799</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <f>'[21]Datos válidos'!$E$11</f>
-        <v>19.641608391608301</v>
-      </c>
-      <c r="K16">
+        <v>19.379370629370602</v>
+      </c>
+      <c r="K18">
         <f>'[21]Datos válidos'!$E$5</f>
-        <v>0.13694920486025325</v>
-      </c>
-      <c r="L16" s="19">
+        <v>0.21435941207244144</v>
+      </c>
+      <c r="L18" s="19">
         <f>'[21]Datos crudos'!$I$2</f>
-        <v>9.814814809942618E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="4">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="11">
-        <v>35</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17">
-        <f>'[22]Datos válidos'!$E$2</f>
-        <v>19.844246662428468</v>
-      </c>
-      <c r="I17">
-        <f>'[22]Datos válidos'!$E$8</f>
-        <v>20.166083916083899</v>
-      </c>
-      <c r="J17">
-        <f>'[22]Datos válidos'!$E$11</f>
-        <v>19.379370629370602</v>
-      </c>
-      <c r="K17">
-        <f>'[22]Datos válidos'!$E$5</f>
-        <v>0.2372029808741063</v>
-      </c>
-      <c r="L17" s="19">
-        <f>'[22]Datos crudos'!$I$2</f>
-        <v>9.2708333322661929E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="11">
-        <v>44</v>
-      </c>
-      <c r="F18" s="22">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G18" s="22">
-        <v>15.5</v>
-      </c>
-      <c r="H18">
-        <f>'[23]Datos válidos'!$E$2</f>
-        <v>18.986013986013912</v>
-      </c>
-      <c r="I18">
-        <f>'[23]Datos válidos'!$E$8</f>
-        <v>19.117132867132799</v>
-      </c>
-      <c r="J18">
-        <f>'[23]Datos válidos'!$E$11</f>
-        <v>18.592657342657301</v>
-      </c>
-      <c r="K18">
-        <f>'[23]Datos válidos'!$E$5</f>
-        <v>0.17591443878932148</v>
-      </c>
-      <c r="L18" s="19">
-        <f>'[23]Datos crudos'!$I$2</f>
-        <v>1.1041666664823424E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+        <v>1.1157407410792075E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="4">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19" s="11">
-        <v>44</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19">
-        <f>'[24]Datos válidos'!$E$2</f>
-        <v>19.248251748251736</v>
+        <f>'[22]Datos válidos'!$E$2</f>
+        <v>19.713127781309591</v>
       </c>
       <c r="I19">
-        <f>'[24]Datos válidos'!$E$8</f>
+        <f>'[22]Datos válidos'!$E$8</f>
+        <v>20.034965034965001</v>
+      </c>
+      <c r="J19">
+        <f>'[22]Datos válidos'!$E$11</f>
         <v>19.510489510489499</v>
       </c>
-      <c r="J19">
-        <f>'[24]Datos válidos'!$E$11</f>
-        <v>18.986013986014001</v>
-      </c>
       <c r="K19">
-        <f>'[24]Datos válidos'!$E$5</f>
-        <v>0.17591443878930005</v>
+        <f>'[22]Datos válidos'!$E$5</f>
+        <v>0.16958123881541934</v>
       </c>
       <c r="L19" s="19">
-        <f>'[24]Datos crudos'!$I$2</f>
-        <v>1.211805555067258E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>15</v>
+        <f>'[22]Datos crudos'!$I$2</f>
+        <v>6.4699074064265005E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="11">
+        <v>44</v>
+      </c>
+      <c r="F20" s="23">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G20" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="H20">
+        <f>'[23]Datos válidos'!$E$2</f>
+        <v>19.653528289891856</v>
+      </c>
+      <c r="I20" t="e">
+        <f>#REF!='[23]Datos válidos'!$E$8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J20">
+        <f>'[23]Datos válidos'!$E$11</f>
+        <v>18.986013986013901</v>
+      </c>
+      <c r="K20">
+        <f>'[23]Datos válidos'!$E$5</f>
+        <v>0.34915333397673137</v>
+      </c>
+      <c r="L20" s="19">
+        <f>'[23]Datos crudos'!$I$2</f>
+        <v>9.6759259249665774E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="4">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="11">
+        <v>44</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21">
+        <f>'[24]Datos válidos'!$E$2</f>
+        <v>19.498569612205966</v>
+      </c>
+      <c r="I21">
+        <f>'[24]Datos válidos'!$E$8</f>
+        <v>19.641608391608401</v>
+      </c>
+      <c r="J21">
+        <f>'[24]Datos válidos'!$E$11</f>
+        <v>19.379370629370602</v>
+      </c>
+      <c r="K21">
+        <f>'[24]Datos válidos'!$E$5</f>
+        <v>0.10898724841701257</v>
+      </c>
+      <c r="L21" s="19">
+        <f>'[24]Datos crudos'!$I$2</f>
+        <v>8.5069444467080757E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>37</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F22" s="23">
         <v>15.3</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G22" s="23">
         <v>14.7</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <f>'[25]Datos válidos'!$E$2</f>
         <v>18.211220597584155</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <f>'[25]Datos válidos'!$E$8</f>
         <v>18.330419580419498</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <f>'[25]Datos válidos'!$E$11</f>
         <v>17.937062937062901</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <f>'[25]Datos válidos'!$E$5</f>
         <v>0.14897488684011062</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L22" s="19">
         <f>'[25]Datos crudos'!$I$2</f>
         <v>1.3194444443797693E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="4">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E23" s="11">
         <v>33</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23">
         <f>'[26]Datos válidos'!$E$2</f>
         <v>18.592657342657301</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <f>'[26]Datos válidos'!$E$8</f>
         <v>18.8548951048951</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <f>'[26]Datos válidos'!$E$11</f>
         <v>18.199300699300601</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <f>'[26]Datos válidos'!$E$5</f>
         <v>0.25559775379747457</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L23" s="19">
         <f>'[26]Datos crudos'!$I$2</f>
         <v>1.0925925926130731E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>14</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B24" s="4">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E24" s="11">
         <v>42</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F24" s="23">
         <v>14.5</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G24" s="23">
         <v>13.5</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <f>'[27]Datos válidos'!$E$2</f>
         <v>17.460267005721501</v>
       </c>
-      <c r="I22">
+      <c r="I24">
         <f>'[27]Datos válidos'!$E$8</f>
         <v>17.937062937062901</v>
       </c>
-      <c r="J22">
+      <c r="J24">
         <f>'[27]Datos válidos'!$E$11</f>
         <v>16.756993006993</v>
       </c>
-      <c r="K22">
+      <c r="K24">
         <f>'[27]Datos válidos'!$E$5</f>
         <v>0.51878267667215028</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L24" s="19">
         <f>'[27]Datos crudos'!$I$2</f>
         <v>1.0277777779265307E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E25" s="11">
         <v>42</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25">
         <f>'[28]Datos válidos'!$E$2</f>
         <v>18.103941513032371</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <f>'[28]Datos válidos'!$E$8</f>
         <v>18.330419580419498</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <f>'[28]Datos válidos'!$E$11</f>
         <v>17.937062937062901</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <f>'[28]Datos válidos'!$E$5</f>
         <v>0.1186014904370309</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L25" s="19">
         <f>'[28]Datos crudos'!$I$2</f>
         <v>1.4131944444670808E-2</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>13</v>
-      </c>
-      <c r="B24" s="4">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="11">
-        <v>52</v>
-      </c>
-      <c r="F24" s="22">
-        <v>13.3</v>
-      </c>
-      <c r="G24" s="22">
-        <v>12.6</v>
-      </c>
-      <c r="H24">
-        <f>'[29]Datos válidos'!$E$2</f>
-        <v>13.335982199618464</v>
-      </c>
-      <c r="I24">
-        <f>'[29]Datos válidos'!$E$8</f>
-        <v>13.4790209790209</v>
-      </c>
-      <c r="J24">
-        <f>'[29]Datos válidos'!$E$11</f>
-        <v>13.216783216783099</v>
-      </c>
-      <c r="K24">
-        <f>'[29]Datos válidos'!$E$5</f>
-        <v>0.12376046426337556</v>
-      </c>
-      <c r="L24" s="19">
-        <f>'[29]Datos crudos'!$I$2</f>
-        <v>2.2175925929332152E-2</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="11">
-        <v>52</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25">
-        <f>'[30]Datos válidos'!$E$2</f>
-        <v>15.183566433566403</v>
-      </c>
-      <c r="I25">
-        <f>'[30]Datos válidos'!$E$8</f>
-        <v>15.314685314685301</v>
-      </c>
-      <c r="J25">
-        <f>'[30]Datos válidos'!$E$11</f>
-        <v>14.921328671328601</v>
-      </c>
-      <c r="K25">
-        <f>'[30]Datos válidos'!$E$5</f>
-        <v>0.13111888111890019</v>
-      </c>
-      <c r="L25" s="19">
-        <f>'[30]Datos crudos'!$I$2</f>
-        <v>1.8599537033878732E-2</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>12</v>
       </c>
       <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="16">
-        <v>40</v>
-      </c>
-      <c r="F26" s="22">
-        <v>12.2</v>
-      </c>
-      <c r="G26" s="22">
-        <v>11.8</v>
+        <v>158</v>
+      </c>
+      <c r="E26" s="22">
+        <v>36</v>
+      </c>
+      <c r="F26" s="23">
+        <v>13.3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>12.6</v>
       </c>
       <c r="H26">
-        <f>'[31]Datos válidos'!$E$2</f>
-        <v>13.407501589319681</v>
+        <f>'[29]Datos válidos'!$E$2</f>
+        <v>16.37555626191984</v>
       </c>
       <c r="I26">
-        <f>'[31]Datos válidos'!$E$8</f>
-        <v>13.4790209790209</v>
+        <f>'[29]Datos válidos'!$E$8</f>
+        <v>17.019230769230699</v>
       </c>
       <c r="J26">
-        <f>'[31]Datos válidos'!$E$11</f>
-        <v>13.216783216783099</v>
+        <f>'[29]Datos válidos'!$E$11</f>
+        <v>15.9702797202797</v>
       </c>
       <c r="K26">
-        <f>'[31]Datos válidos'!$E$5</f>
-        <v>0.10754364496479599</v>
+        <f>'[29]Datos válidos'!$E$5</f>
+        <v>0.31824119382004967</v>
       </c>
       <c r="L26" s="19">
-        <f>'[31]Datos crudos'!$I$2</f>
-        <v>1.1192129633855075E-2</v>
+        <f>'[29]Datos crudos'!$I$2</f>
+        <v>9.8495370330056176E-3</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="16">
-        <v>33</v>
-      </c>
-      <c r="P26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="O26" s="11">
+        <v>52</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E27" s="16">
-        <v>40</v>
-      </c>
-      <c r="F27" s="22">
-        <v>12.633333333333301</v>
-      </c>
-      <c r="G27" s="22">
-        <v>11.366666666666699</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27">
-        <f>'[32]Datos válidos'!$E$2</f>
-        <v>14.373013350286033</v>
+        <f>'[30]Datos válidos'!$E$2</f>
+        <v>17.567546090273311</v>
       </c>
       <c r="I27">
-        <f>'[32]Datos válidos'!$E$8</f>
-        <v>14.527972027972</v>
+        <f>'[30]Datos válidos'!$E$8</f>
+        <v>17.937062937062901</v>
       </c>
       <c r="J27">
-        <f>'[32]Datos válidos'!$E$11</f>
-        <v>14.134615384615399</v>
+        <f>'[30]Datos válidos'!$E$11</f>
+        <v>17.1503496503496</v>
       </c>
       <c r="K27">
-        <f>'[32]Datos válidos'!$E$5</f>
-        <v>0.15311386576604064</v>
+        <f>'[30]Datos válidos'!$E$5</f>
+        <v>0.26104305095725211</v>
       </c>
       <c r="L27" s="19">
-        <f>'[32]Datos crudos'!$I$2</f>
-        <v>1.2199074073578231E-2</v>
+        <f>'[30]Datos crudos'!$I$2</f>
+        <v>4.2824074043892324E-3</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>11</v>
+        <v>135</v>
+      </c>
+      <c r="O27" s="11">
+        <v>52</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>12</v>
       </c>
       <c r="B28" s="4">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E28" s="16">
-        <v>34</v>
-      </c>
-      <c r="F28" s="22">
-        <v>11.2</v>
-      </c>
-      <c r="G28" s="22">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F28" s="23">
+        <v>12.2</v>
+      </c>
+      <c r="G28" s="23">
+        <v>11.8</v>
       </c>
       <c r="H28">
-        <f>'[33]Datos válidos'!$E$2</f>
-        <v>12.310870947234518</v>
+        <f>'[31]Datos válidos'!$E$2</f>
+        <v>15.684202161474825</v>
       </c>
       <c r="I28">
-        <f>'[33]Datos válidos'!$E$8</f>
-        <v>12.692307692307599</v>
+        <f>'[31]Datos válidos'!$E$8</f>
+        <v>15.9702797202797</v>
       </c>
       <c r="J28">
-        <f>'[33]Datos válidos'!$E$11</f>
-        <v>12.0367132867132</v>
+        <f>'[31]Datos válidos'!$E$11</f>
+        <v>15.445804195804101</v>
       </c>
       <c r="K28">
-        <f>'[33]Datos válidos'!$E$5</f>
-        <v>0.24498218522565796</v>
+        <f>'[31]Datos válidos'!$E$5</f>
+        <v>0.18373663891926684</v>
       </c>
       <c r="L28" s="19">
-        <f>'[33]Datos crudos'!$I$2</f>
-        <v>1.0659722225682344E-2</v>
+        <f>'[31]Datos crudos'!$I$2</f>
+        <v>8.55324073927477E-3</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="O28" s="16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="P28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="4">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E29" s="16">
-        <v>39</v>
-      </c>
-      <c r="F29" s="22">
-        <v>13.299999999999899</v>
-      </c>
-      <c r="G29" s="22">
-        <v>10.700000000000101</v>
+        <v>34</v>
+      </c>
+      <c r="F29" s="23">
+        <v>12.633333333333301</v>
+      </c>
+      <c r="G29" s="23">
+        <v>11.366666666666699</v>
       </c>
       <c r="H29">
-        <f>'[34]Datos válidos'!$E$2</f>
-        <v>13.312142403051491</v>
+        <f>'[32]Datos válidos'!$E$2</f>
+        <v>16.184837889383314</v>
       </c>
       <c r="I29">
-        <f>'[34]Datos válidos'!$E$8</f>
-        <v>13.479020979021</v>
+        <f>'[32]Datos válidos'!$E$8</f>
+        <v>16.625874125874098</v>
       </c>
       <c r="J29">
-        <f>'[34]Datos válidos'!$E$11</f>
-        <v>13.085664335664299</v>
+        <f>'[32]Datos válidos'!$E$11</f>
+        <v>15.9702797202797</v>
       </c>
       <c r="K29">
-        <f>'[34]Datos válidos'!$E$5</f>
-        <v>0.14471757988663417</v>
+        <f>'[32]Datos válidos'!$E$5</f>
+        <v>0.1879416829958753</v>
       </c>
       <c r="L29" s="19">
-        <f>'[34]Datos crudos'!$I$2</f>
-        <v>4.2592592581058852E-3</v>
+        <f>'[32]Datos crudos'!$I$2</f>
+        <v>9.9768518484779634E-3</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="O29" s="16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>10</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>11</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="E30" s="16">
-        <v>33</v>
-      </c>
-      <c r="F30" s="22">
-        <v>10.4</v>
-      </c>
-      <c r="G30" s="22">
-        <v>9.6</v>
+        <v>36</v>
+      </c>
+      <c r="F30" s="23">
+        <v>11.2</v>
+      </c>
+      <c r="G30" s="23">
+        <v>11</v>
       </c>
       <c r="H30">
-        <f>'[35]Datos válidos'!$E$2</f>
-        <v>11.619516846789526</v>
+        <f>'[33]Datos válidos'!$E$2</f>
+        <v>14.229974570883591</v>
       </c>
       <c r="I30">
-        <f>'[35]Datos válidos'!$E$8</f>
-        <v>11.7744755244755</v>
+        <f>'[33]Datos válidos'!$E$8</f>
+        <v>14.265734265734199</v>
       </c>
       <c r="J30">
-        <f>'[35]Datos válidos'!$E$11</f>
-        <v>11.3811188811188</v>
+        <f>'[33]Datos válidos'!$E$11</f>
+        <v>14.0034965034964</v>
       </c>
       <c r="K30">
-        <f>'[35]Datos válidos'!$E$5</f>
-        <v>0.12871282568367812</v>
+        <f>'[33]Datos válidos'!$E$5</f>
+        <v>8.4790619407729959E-2</v>
       </c>
       <c r="L30" s="19">
-        <f>'[35]Datos crudos'!$I$2</f>
-        <v>9.1550925935734995E-3</v>
+        <f>'[33]Datos crudos'!$I$2</f>
+        <v>1.2546296296932269E-2</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="O30" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="4">
         <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="E31" s="16">
-        <v>34</v>
-      </c>
-      <c r="F31" s="22">
-        <v>16.8999999999997</v>
-      </c>
-      <c r="G31" s="22">
-        <v>10.700000000000299</v>
+        <v>36</v>
+      </c>
+      <c r="F31" s="23">
+        <v>13.299999999999899</v>
+      </c>
+      <c r="G31" s="23">
+        <v>10.700000000000101</v>
       </c>
       <c r="H31">
-        <f>'[36]Datos válidos'!$E$2</f>
-        <v>13.40750158931978</v>
+        <f>'[34]Datos válidos'!$E$2</f>
+        <v>15.374284806102965</v>
       </c>
       <c r="I31">
-        <f>'[36]Datos válidos'!$E$8</f>
-        <v>13.479020979021</v>
+        <f>'[34]Datos válidos'!$E$8</f>
+        <v>15.576923076923</v>
       </c>
       <c r="J31">
-        <f>'[36]Datos válidos'!$E$11</f>
-        <v>13.216783216783201</v>
+        <f>'[34]Datos válidos'!$E$11</f>
+        <v>15.1835664335664</v>
       </c>
       <c r="K31">
-        <f>'[36]Datos válidos'!$E$5</f>
-        <v>9.015100318432144E-2</v>
+        <f>'[34]Datos válidos'!$E$5</f>
+        <v>0.135803166261523</v>
       </c>
       <c r="L31" s="19">
-        <f>'[36]Datos crudos'!$I$2</f>
-        <v>9.3518518551718444E-3</v>
+        <f>'[34]Datos crudos'!$I$2</f>
+        <v>1.3715277775190771E-2</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="O31" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
-        <v>9</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>10</v>
       </c>
       <c r="B32" s="4">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E32" s="16">
-        <v>36</v>
-      </c>
-      <c r="F32" s="22">
-        <v>9.1</v>
-      </c>
-      <c r="G32" s="22">
-        <v>8.8000000000000007</v>
+        <v>41</v>
+      </c>
+      <c r="F32" s="23">
+        <v>10.4</v>
+      </c>
+      <c r="G32" s="23">
+        <v>9.6</v>
       </c>
       <c r="H32">
-        <f>'[37]Datos válidos'!$E$2</f>
-        <v>11.845994914176709</v>
+        <f>'[35]Datos válidos'!$E$2</f>
+        <v>13.347902097902011</v>
       </c>
       <c r="I32">
-        <f>'[37]Datos válidos'!$E$8</f>
-        <v>12.167832167832101</v>
+        <f>'[35]Datos válidos'!$E$8</f>
+        <v>13.4790209790209</v>
       </c>
       <c r="J32">
-        <f>'[37]Datos válidos'!$E$11</f>
-        <v>11.643356643356601</v>
+        <f>'[35]Datos válidos'!$E$11</f>
+        <v>13.085664335664299</v>
       </c>
       <c r="K32">
-        <f>'[37]Datos válidos'!$E$5</f>
-        <v>0.15912059691003339</v>
+        <f>'[35]Datos válidos'!$E$5</f>
+        <v>0.13111888111888029</v>
       </c>
       <c r="L32" s="19">
-        <f>'[37]Datos crudos'!$I$2</f>
-        <v>9.8379629562259652E-3</v>
+        <f>'[35]Datos crudos'!$I$2</f>
+        <v>1.0289351856044959E-2</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="O32" s="16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="4">
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E33" s="16">
-        <v>36</v>
-      </c>
-      <c r="F33" s="22">
-        <v>29.8999999999991</v>
-      </c>
-      <c r="G33" s="22">
-        <v>12.900000000000899</v>
+        <v>42</v>
+      </c>
+      <c r="F33" s="23">
+        <v>16.8999999999997</v>
+      </c>
+      <c r="G33" s="23">
+        <v>10.700000000000299</v>
       </c>
       <c r="H33">
-        <f>'[38]Datos válidos'!$E$2</f>
-        <v>13.097584233947838</v>
+        <f>'[36]Datos válidos'!$E$2</f>
+        <v>15.255085823267619</v>
       </c>
       <c r="I33">
-        <f>'[38]Datos válidos'!$E$8</f>
-        <v>13.3479020979021</v>
+        <f>'[36]Datos válidos'!$E$8</f>
+        <v>15.4458041958042</v>
       </c>
       <c r="J33">
-        <f>'[38]Datos válidos'!$E$11</f>
-        <v>12.9545454545454</v>
+        <f>'[36]Datos válidos'!$E$11</f>
+        <v>15.0524475524475</v>
       </c>
       <c r="K33">
-        <f>'[38]Datos válidos'!$E$5</f>
-        <v>0.12376046426337538</v>
+        <f>'[36]Datos válidos'!$E$5</f>
+        <v>0.10754364496479615</v>
       </c>
       <c r="L33" s="19">
-        <f>'[38]Datos crudos'!$I$2</f>
-        <v>1.4537037037371192E-2</v>
+        <f>'[36]Datos crudos'!$I$2</f>
+        <v>4.3287037042318843E-3</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="O33" s="16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R33" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>9</v>
       </c>
       <c r="B34" s="4">
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="E34" s="16">
-        <v>34</v>
-      </c>
-      <c r="F34" s="22">
+        <v>44</v>
+      </c>
+      <c r="F34" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="G34" s="23">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H34">
+        <f>'[37]Datos válidos'!$E$2</f>
+        <v>12.811506675142981</v>
+      </c>
+      <c r="I34">
+        <f>'[37]Datos válidos'!$E$8</f>
+        <v>13.085664335664299</v>
+      </c>
+      <c r="J34">
+        <f>'[37]Datos válidos'!$E$11</f>
+        <v>12.4300699300699</v>
+      </c>
+      <c r="K34">
+        <f>'[37]Datos válidos'!$E$5</f>
+        <v>0.22293715366985245</v>
+      </c>
+      <c r="L34" s="19">
+        <f>'[37]Datos crudos'!$I$2</f>
+        <v>1.4456018514465541E-2</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="4">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="16">
+        <v>44</v>
+      </c>
+      <c r="F35" s="23">
+        <v>29.8999999999991</v>
+      </c>
+      <c r="G35" s="23">
+        <v>12.900000000000899</v>
+      </c>
+      <c r="H35">
+        <f>'[38]Datos válidos'!$E$2</f>
+        <v>13.717418944691644</v>
+      </c>
+      <c r="I35">
+        <f>'[38]Datos válidos'!$E$8</f>
+        <v>14.0034965034965</v>
+      </c>
+      <c r="J35">
+        <f>'[38]Datos válidos'!$E$11</f>
+        <v>13.479020979021</v>
+      </c>
+      <c r="K35">
+        <f>'[38]Datos válidos'!$E$5</f>
+        <v>0.16395819005768134</v>
+      </c>
+      <c r="L35" s="19">
+        <f>'[38]Datos crudos'!$I$2</f>
+        <v>1.134259258833481E-2</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="16">
+        <v>38</v>
+      </c>
+      <c r="F36" s="23">
         <v>8.4</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G36" s="23">
         <v>7.7</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <f>'[39]Datos válidos'!$E$2</f>
         <v>12.000953591862638</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <f>'[39]Datos válidos'!$E$8</f>
         <v>12.167832167832101</v>
       </c>
-      <c r="J34">
+      <c r="J36">
         <f>'[39]Datos válidos'!$E$11</f>
         <v>11.643356643356601</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <f>'[39]Datos válidos'!$E$5</f>
         <v>0.16679341210784843</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L36" s="19">
         <f>'[39]Datos crudos'!$I$2</f>
         <v>1.1215277780138422E-2</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="16">
-        <v>38</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="M36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" s="16">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="4">
         <v>23</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="16">
-        <v>34</v>
-      </c>
-      <c r="F35" s="22">
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="16">
+        <v>39</v>
+      </c>
+      <c r="F37" s="23">
         <v>42.899999999998499</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G37" s="23">
         <v>15.100000000001501</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <f>'[40]Datos válidos'!$E$2</f>
         <v>13.121424030514907</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <f>'[40]Datos válidos'!$E$8</f>
         <v>13.479020979021</v>
       </c>
-      <c r="J35">
+      <c r="J37">
         <f>'[40]Datos válidos'!$E$11</f>
         <v>12.9545454545454</v>
       </c>
-      <c r="K35">
+      <c r="K37">
         <f>'[40]Datos válidos'!$E$5</f>
         <v>0.16679341210789259</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L37" s="19">
         <f>'[40]Datos crudos'!$I$2</f>
         <v>1.2812499997380655E-2</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="M37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O37" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
         <v>7</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B38" s="4">
         <v>6</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E38" s="16">
         <v>36</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F38" s="17">
         <v>7.3</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G38" s="23">
         <v>6.8</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <f>'[41]Datos válidos'!$E$2</f>
         <v>11.130801017164618</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <f>'[41]Datos válidos'!$E$8</f>
         <v>11.512237762237699</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <f>'[41]Datos válidos'!$E$11</f>
         <v>10.8566433566433</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <f>'[41]Datos válidos'!$E$5</f>
         <v>0.2378609654415037</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L38" s="19">
         <f>'[41]Datos crudos'!$I$2</f>
         <v>1.2499999997089617E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="4">
         <v>23</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E39" s="16">
         <v>36</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F39" s="17">
         <v>55.899999999997902</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G39" s="23">
         <v>17.3000000000021</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <f>'[42]Datos válidos'!$E$2</f>
         <v>12.394310235219292</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <f>'[42]Datos válidos'!$E$8</f>
         <v>12.692307692307701</v>
       </c>
-      <c r="J37">
+      <c r="J39">
         <f>'[42]Datos válidos'!$E$11</f>
         <v>12.298951048951</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <f>'[42]Datos válidos'!$E$5</f>
         <v>0.11860149043707441</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L39" s="19">
         <f>'[42]Datos crudos'!$I$2</f>
         <v>1.2233796296641231E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
         <v>6</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B40" s="4">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E40" s="16">
         <v>35</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F40" s="17">
         <v>6.4</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G40" s="23">
         <v>5.7</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <f>'[43]Datos válidos'!$E$2</f>
         <v>10.606325492689127</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <f>'[43]Datos válidos'!$E$8</f>
         <v>10.987762237762199</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <f>'[43]Datos válidos'!$E$11</f>
         <v>10.3321678321678</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <f>'[43]Datos válidos'!$E$5</f>
         <v>0.14897488684012278</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L40" s="19">
         <f>'[43]Datos crudos'!$I$2</f>
         <v>1.1712962965248153E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="4">
         <v>23</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E41" s="16">
         <v>35</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F41" s="17">
         <v>68.899999999997306</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G41" s="23">
         <v>19.5000000000027</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <f>'[44]Datos válidos'!$E$2</f>
         <v>11.977113795295564</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <f>'[44]Datos válidos'!$E$8</f>
         <v>12.298951048951</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <f>'[44]Datos válidos'!$E$11</f>
         <v>11.7744755244755</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <f>'[44]Datos válidos'!$E$5</f>
         <v>0.19766915072841282</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L41" s="19">
         <f>'[44]Datos crudos'!$I$2</f>
         <v>1.4479166668024845E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
         <v>5</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B42" s="4">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E42" s="16">
         <v>37</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F42" s="23">
         <v>5.2</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G42" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <f>'[45]Datos válidos'!$E$2</f>
         <v>9.8792116973935133</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <f>'[45]Datos válidos'!$E$8</f>
         <v>10.069930069930001</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <f>'[45]Datos válidos'!$E$11</f>
         <v>9.8076923076923208</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <f>'[45]Datos válidos'!$E$5</f>
         <v>0.10754364496475097</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L42" s="19">
         <f>'[45]Datos crudos'!$I$2</f>
         <v>1.3206018520577345E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="4">
         <v>23</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E43" s="16">
         <v>37</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F43" s="23">
         <v>81.899999999996695</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G43" s="23">
         <v>21.7000000000033</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <f>'[46]Datos válidos'!$E$2</f>
         <v>11.130801017164629</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <f>'[46]Datos válidos'!$E$8</f>
         <v>11.3811188811188</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <f>'[46]Datos válidos'!$E$11</f>
         <v>10.987762237762199</v>
       </c>
-      <c r="K41">
+      <c r="K43">
         <f>'[46]Datos válidos'!$E$5</f>
         <v>0.1237604642633552</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L43" s="19">
         <f>'[46]Datos crudos'!$I$2</f>
         <v>1.2905092589790002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B44" s="4">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E44" s="16">
         <v>35</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F44" s="23">
         <v>4.5</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G44" s="23">
         <v>3.5</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <f>'[47]Datos válidos'!$E$2</f>
         <v>8.9494596312777741</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <f>'[47]Datos válidos'!$E$8</f>
         <v>9.2832167832167407</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <f>'[47]Datos válidos'!$E$11</f>
         <v>8.7587412587412192</v>
       </c>
-      <c r="K42">
+      <c r="K44">
         <f>'[47]Datos válidos'!$E$5</f>
         <v>0.1794330759791827</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L44" s="19">
         <f>'[47]Datos crudos'!$I$2</f>
         <v>1.7175925931951497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="4">
         <v>23</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E45" s="16">
         <v>35</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F45" s="23">
         <v>94.899999999996098</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G45" s="23">
         <v>23.900000000003899</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <f>'[48]Datos válidos'!$E$2</f>
         <v>10.892403051493927</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <f>'[48]Datos válidos'!$E$8</f>
         <v>11.25</v>
       </c>
-      <c r="J43">
+      <c r="J45">
         <f>'[48]Datos válidos'!$E$11</f>
         <v>10.069930069930001</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <f>'[48]Datos válidos'!$E$5</f>
         <v>0.37588336599179584</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L45" s="19">
         <f>'[48]Datos crudos'!$I$2</f>
         <v>1.9398148149775807E-2</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B46" s="4">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E46" s="16">
         <v>41</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F46" s="17">
         <v>3.2</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G46" s="23">
         <v>2.8</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <f>'[49]Datos válidos'!$E$2</f>
         <v>8.6872218690400143</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <f>'[49]Datos válidos'!$E$8</f>
         <v>8.8898601398600992</v>
       </c>
-      <c r="J44">
+      <c r="J46">
         <f>'[49]Datos válidos'!$E$11</f>
         <v>8.4965034965034594</v>
       </c>
-      <c r="K44">
+      <c r="K46">
         <f>'[49]Datos válidos'!$E$5</f>
         <v>0.15912059691002947</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L46" s="19">
         <f>'[49]Datos crudos'!$I$2</f>
         <v>1.3680555552127771E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="4">
         <v>23</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E47" s="16">
         <v>41</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F47" s="17">
         <v>107.899999999996</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G47" s="23">
         <v>26.100000000004499</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <f>'[50]Datos válidos'!$E$2</f>
         <v>9.2355371900826633</v>
       </c>
-      <c r="I45">
+      <c r="I47">
         <f>'[50]Datos válidos'!$E$8</f>
         <v>9.8076923076923208</v>
       </c>
-      <c r="J45">
+      <c r="J47">
         <f>'[50]Datos válidos'!$E$11</f>
         <v>8.6276223776223997</v>
       </c>
-      <c r="K45">
+      <c r="K47">
         <f>'[50]Datos válidos'!$E$5</f>
         <v>0.51878267667214784</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L47" s="19">
         <f>'[50]Datos crudos'!$I$2</f>
         <v>1.43518518525525E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="66">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7416,15 +8125,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7434,313 +8143,423 @@
       <c r="C1" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A2)*2-2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B2)-ROW($B$2)+1)*2)</f>
-        <v>24.171169739351509</v>
+        <v>25.029402415766011</v>
       </c>
       <c r="C2">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B2)-ROW($B$2)+1)*2+1)</f>
-        <v>24.051970756516173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25.565797838525096</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C2,B2)</f>
+        <v>25.297600127145554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A3)*2-2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B3)-ROW($B$2)+1)*2)</f>
-        <v>23.587094723458314</v>
+        <v>24.361888111888074</v>
       </c>
       <c r="C3">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B3)-ROW($B$2)+1)*2+1)</f>
-        <v>23.146058486967537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24.934043229497753</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D24" si="0">AVERAGE(C3,B3)</f>
+        <v>24.647965670692912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A4)*2-2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B4)-ROW($B$2)+1)*2)</f>
-        <v>22.812301335028572</v>
+        <v>23.730133502860728</v>
       </c>
       <c r="C4">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B4)-ROW($B$2)+1)*2+1)</f>
-        <v>22.180546726001246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23.372536554354692</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>23.55133502860771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A5)*2-2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B5)-ROW($B$2)+1)*2)</f>
-        <v>22.311665607120116</v>
+        <v>23.146058486967529</v>
       </c>
       <c r="C5">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B5)-ROW($B$2)+1)*2+1)</f>
-        <v>21.906389065479946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22.681182453909674</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>22.913620470438602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A6)*2-2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B6)-ROW($B$2)+1)*2)</f>
-        <v>21.775270184361009</v>
+        <v>22.585823267641402</v>
       </c>
       <c r="C6">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B6)-ROW($B$2)+1)*2+1)</f>
-        <v>21.28655435473614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22.502383979656681</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>22.544103623649043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A7)*2-2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B7)-ROW($B$2)+1)*2)</f>
-        <v>21.381913541004359</v>
+        <v>22.287825810553063</v>
       </c>
       <c r="C7">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B7)-ROW($B$2)+1)*2+1)</f>
-        <v>20.511760966306401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21.703750794659864</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>21.995788302606464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A8)*2-2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B8)-ROW($B$2)+1)*2)</f>
-        <v>20.511760966306355</v>
+        <v>21.274634456452564</v>
       </c>
       <c r="C8">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B8)-ROW($B$2)+1)*2+1)</f>
-        <v>20.321042593769842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.940877304513656</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21.107755880483111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A9)*2-2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B9)-ROW($B$2)+1)*2)</f>
-        <v>19.915766052129626</v>
+        <v>20.511760966306355</v>
       </c>
       <c r="C9">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B9)-ROW($B$2)+1)*2+1)</f>
-        <v>19.844246662428468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.321042593769842</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>20.4164017800381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A10)*2-2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B10)-ROW($B$2)+1)*2)</f>
-        <v>18.986013986013912</v>
+        <v>19.963445645263786</v>
       </c>
       <c r="C10">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B10)-ROW($B$2)+1)*2+1)</f>
-        <v>19.248251748251736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.713127781309591</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>19.838286713286688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A11)*2-2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B11)-ROW($B$2)+1)*2)</f>
-        <v>18.211220597584155</v>
+        <v>19.653528289891856</v>
       </c>
       <c r="C11">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B11)-ROW($B$2)+1)*2+1)</f>
-        <v>18.592657342657301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.498569612205966</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>19.576048951048911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A12)*2-2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B12)-ROW($B$2)+1)*2)</f>
-        <v>17.460267005721501</v>
+        <v>18.211220597584155</v>
       </c>
       <c r="C12">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B12)-ROW($B$2)+1)*2+1)</f>
-        <v>18.103941513032371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.592657342657301</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>18.401938970120728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A13)*2-2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B13)-ROW($B$2)+1)*2)</f>
-        <v>13.335982199618464</v>
+        <v>17.460267005721501</v>
       </c>
       <c r="C13">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B13)-ROW($B$2)+1)*2+1)</f>
-        <v>15.183566433566403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.103941513032371</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>17.782104259376936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A14)*2-2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B14)-ROW($B$2)+1)*2)</f>
-        <v>13.407501589319681</v>
+        <v>16.37555626191984</v>
       </c>
       <c r="C14">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B14)-ROW($B$2)+1)*2+1)</f>
-        <v>14.373013350286033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.567546090273311</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>16.971551176096575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A15)*2-2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B15)-ROW($B$2)+1)*2)</f>
-        <v>12.310870947234518</v>
+        <v>15.684202161474825</v>
       </c>
       <c r="C15">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B15)-ROW($B$2)+1)*2+1)</f>
-        <v>13.312142403051491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.184837889383314</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>15.93452002542907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A16)*2-2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B16)-ROW($B$2)+1)*2)</f>
-        <v>11.619516846789526</v>
+        <v>14.229974570883591</v>
       </c>
       <c r="C16">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B16)-ROW($B$2)+1)*2+1)</f>
-        <v>13.40750158931978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.374284806102965</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>14.802129688493277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A17)*2-2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B17)-ROW($B$2)+1)*2)</f>
-        <v>11.845994914176709</v>
+        <v>13.347902097902011</v>
       </c>
       <c r="C17">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B17)-ROW($B$2)+1)*2+1)</f>
-        <v>13.097584233947838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.255085823267619</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>14.301493960584814</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A18)*2-2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B18)-ROW($B$2)+1)*2)</f>
-        <v>12.000953591862638</v>
+        <v>12.811506675142981</v>
       </c>
       <c r="C18">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B18)-ROW($B$2)+1)*2+1)</f>
-        <v>13.121424030514907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.717418944691644</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13.264462809917312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A19)*2-2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B19)-ROW($B$2)+1)*2)</f>
-        <v>11.130801017164618</v>
+        <v>12.000953591862638</v>
       </c>
       <c r="C19">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B19)-ROW($B$2)+1)*2+1)</f>
-        <v>12.394310235219292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.121424030514907</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>12.561188811188773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A20)*2-2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B20)-ROW($B$2)+1)*2)</f>
-        <v>10.606325492689127</v>
+        <v>11.130801017164618</v>
       </c>
       <c r="C20">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B20)-ROW($B$2)+1)*2+1)</f>
-        <v>11.977113795295564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.394310235219292</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>11.762555626191954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A21)*2-2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B21)-ROW($B$2)+1)*2)</f>
-        <v>9.8792116973935133</v>
+        <v>10.606325492689127</v>
       </c>
       <c r="C21">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B21)-ROW($B$2)+1)*2+1)</f>
-        <v>11.130801017164629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.977113795295564</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>11.291719643992344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A22)*2-2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B22)-ROW($B$2)+1)*2)</f>
-        <v>8.9494596312777741</v>
+        <v>9.8792116973935133</v>
       </c>
       <c r="C22">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B22)-ROW($B$2)+1)*2+1)</f>
-        <v>10.892403051493927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.130801017164629</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10.505006357279072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>INDEX('Pruebas apoyadas'!A:A,ROW($A23)*2-2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B23)-ROW($B$2)+1)*2)</f>
-        <v>8.6872218690400143</v>
+        <v>8.9494596312777741</v>
       </c>
       <c r="C23">
         <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B23)-ROW($B$2)+1)*2+1)</f>
+        <v>10.892403051493927</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>9.9209313413858506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>INDEX('Pruebas apoyadas'!A:A,ROW($A24)*2-2)</f>
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B24)-ROW($B$2)+1)*2)</f>
+        <v>8.6872218690400143</v>
+      </c>
+      <c r="C24">
+        <f>INDEX('Pruebas apoyadas'!H:H,(ROW(B24)-ROW($B$2)+1)*2+1)</f>
         <v>9.2355371900826633</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>8.9613795295613379</v>
       </c>
     </row>
   </sheetData>
